--- a/Data/EC/NIT-9005778734.xlsx
+++ b/Data/EC/NIT-9005778734.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84242C8D-81F8-4214-9858-60780330FFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{877DDF51-B3F7-47BE-912D-DDBE0521E7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA20066D-C046-4D76-BABE-B13CBDBF9808}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6E3A4B25-91F9-46E7-ADFC-06723C7C79FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,121 +71,106 @@
     <t>HUMBERTO JIMENEZ MARTINEZ</t>
   </si>
   <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>9005778734</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1604</t>
-  </si>
-  <si>
-    <t>1603</t>
-  </si>
-  <si>
-    <t>1602</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +269,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +284,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +484,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +528,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +584,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80464AB-525D-C127-873C-177D25276C88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A46FC2-F456-B9D0-180C-30357C1C38E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,8 +935,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B411C7-85C8-4984-9B75-5EE9B905455D}">
-  <dimension ref="B2:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC00036A-E162-431D-A54B-FA9E1F33272A}">
+  <dimension ref="B2:J55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -975,7 +960,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1020,7 +1005,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1052,12 +1037,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1179326</v>
+        <v>1068926</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1068,17 +1053,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1105,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1874,140 +1859,56 @@
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="B49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
-        <v>31439</v>
-      </c>
-      <c r="G49" s="18">
-        <v>785979</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="18">
-        <v>27600</v>
-      </c>
-      <c r="G50" s="18">
-        <v>0</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="18">
-        <v>27600</v>
-      </c>
-      <c r="G51" s="18">
-        <v>0</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="18">
-        <v>27600</v>
-      </c>
-      <c r="G52" s="18">
-        <v>0</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="24">
-        <v>27600</v>
-      </c>
-      <c r="G53" s="24">
-        <v>0</v>
-      </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="32"/>
-      <c r="H58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="H59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="F49" s="24">
+        <v>31439</v>
+      </c>
+      <c r="G49" s="24">
+        <v>785979</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="H54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
